--- a/source/_attachment/201805LiCaiNote/目标管理.xlsx
+++ b/source/_attachment/201805LiCaiNote/目标管理.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/Documents/reference/跟简七学理财——网易云（完结）/第01章 和钱做朋友/资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/Documents/SubVersions/blog/blog/source/_attachment/201805LiCaiNote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42B0C51D-824F-DE4E-979A-A8665318B897}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD9097D-C122-9449-B800-C0A529C73A2A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="24940" windowHeight="15000" xr2:uid="{15963B17-4551-0E4A-97BD-862B1E49F277}"/>
   </bookViews>
   <sheets>
-    <sheet name="模板" sheetId="1" r:id="rId1"/>
+    <sheet name="学习简七课程" sheetId="2" r:id="rId1"/>
+    <sheet name="模板" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>1、提出目标</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -199,12 +201,736 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>我想要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习简七课程</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>wo'xiang'ya</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1）我的目标是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习简七理财课程，并将它应用到生活中，尽快为我的资产找到合理的处理方案。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>## 执行目标落地的关键步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 第1章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭上眼睛可以把课程复述一遍
+将课程中的练习应用到生活中</t>
+    <rPh sb="0" eb="2">
+      <t>bi'shang'yan'jing'ke'yi'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 第2章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3 第3章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4 第4章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5 第5章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6 第6章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7 第7章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8 第8章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9 第9章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10 第10章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11 第11章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#12 第12章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#13 第13章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#14 第14章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#15 第15章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#16 第16章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#17 第17章视频、作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#18 完成全部课程，总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭上眼睛可以把整个课程复述一遍
+将课程中的练习应用到生活中</t>
+    <rPh sb="0" eb="2">
+      <t>bi'shang'yan'jing'ke'yi'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个问题很重要是因为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">突然拥有一大笔钱，但手足无措。不折腾，钱会贬值；折腾，钱可能会加剧变少。如果处置得当，世界上会少一个打工仔，而多一个为理想而奋斗的人，我认为这是对世界的贡献。因此学会合理处置这份财产就不是我一个人的事，而是事关世界更美好。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我现在已经完成了：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">听了简七理财课程的前2章。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我还需要做到：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">关于“怎么定义财务自由”和“为什么要追求财务自由”给我挺大的触动，因此我认为这门课程值得我继续学习。完成第二章的课程后，我应该有能力做到评估自己和“财务自由”之间的距离还有多远，以及应该朝什么方向努力。17章课程完成后，我应该可以收获更多。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谁可以为我提供一些新思路？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅从课程就能得到我想要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>zhe'g'wen'ti'hen'zhong'yao'shi'yin'we</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经过分析和思考，我面临的问题发生变化了吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">问题本身并没有变化，但会衍生出新的问题。初始问题是：我要学习简七理财课程。衍生出的问题是：通过课程提出理财的新问题，完善我的理财策略和方案。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果有，现在我真正需要解决的是个什么样的问题？</t>
+    </r>
+    <rPh sb="0" eb="7">
+      <t>wen't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这件事需要在什么时候完成？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尽快，目前这是我生命当中最重要的事情。今天用2个小时完成了2章，我觉得这次GoogleIO旅行应该可以全部完成。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成这件事需要几个步骤？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、完成课程的学习，输出笔记，可以复述一遍
+2、应用到实际生活中
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我可以向谁寻求帮助或建议？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程难度不大，都可以理解和消化，如果有问题，去她的论坛吧。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我需要他人的鼓励或监督吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不需要，我的学习能力很强！</t>
+    </r>
+    <rPh sb="0" eb="12">
+      <t>jin'kua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么时候开始？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">现在开始
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从开始到完成需要多长时间？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">预计学完课程需要24个小时，再加上练习，总共需要48小时。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会发生延误吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预期在5月12日到达北京之前完成</t>
+    </r>
+    <rPh sb="0" eb="6">
+      <t>xian'zai'kai'sh</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">整个计划需要花多少钱？
+在什么时点需要准备多少？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有金钱成本</t>
+    </r>
+    <rPh sb="0" eb="10">
+      <t>mei'yo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我每天会花多少时间投入在这件事上？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在往返美国的飞机上共花8个小时，每天在酒店再花2个小时</t>
+    </r>
+    <rPh sb="0" eb="16">
+      <t>zai'wang'fan'mei'guo'de'fei'ji'shan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑 Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我需要外部支持吗？
+从哪里寻求这些支持？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不需要外部支持</t>
+    </r>
+    <rPh sb="0" eb="8">
+      <t>bu'xu'yao'wai'bu'zhi'ch</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年05月13日重新调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 快速浏览完所有视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解基本概念，并筛选出重要章节</t>
+    <rPh sb="0" eb="2">
+      <t>liao'jie'ji'ben'gai'nia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月12日（已完成）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 完成第1~3、5~9、12~13、17，共11章的精读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出笔记</t>
+    <rPh sb="0" eb="4">
+      <t>shu'ch</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3 将所学内容应用到生活中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成自己的理财策略</t>
+    <rPh sb="0" eb="2">
+      <t>xing'cheng'zi'ji'd</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +1004,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +1053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -418,13 +1178,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,15 +1212,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -473,74 +1362,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,10 +1681,890 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54CD375-69C3-F041-BB95-ECB1E7D514B5}">
+  <dimension ref="B1:L53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="B1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="163" customHeight="1">
+      <c r="B8" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="2:12" ht="81" customHeight="1">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="2:12" ht="171" customHeight="1">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="2:12" ht="182" customHeight="1">
+      <c r="B24" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="2:12" ht="41" customHeight="1">
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="2:12" ht="36" customHeight="1">
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="9">
+        <v>43226</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" ht="37" customHeight="1">
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="9">
+        <v>43227</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" ht="37" customHeight="1">
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="9">
+        <v>43227</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" ht="37" customHeight="1">
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="9">
+        <v>43227</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" ht="37" customHeight="1">
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="9">
+        <v>43227</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11" ht="37" customHeight="1">
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="9">
+        <v>43228</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" ht="37" customHeight="1">
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="9">
+        <v>43228</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" ht="37" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="9">
+        <v>43229</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" ht="37" customHeight="1">
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="9">
+        <v>43229</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" ht="37" customHeight="1">
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="9">
+        <v>43230</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" ht="37" customHeight="1">
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="9">
+        <v>43230</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" ht="37" customHeight="1">
+      <c r="B41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="9">
+        <v>43231</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="2:11" ht="37" customHeight="1">
+      <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="9">
+        <v>43231</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="2:11" ht="37" customHeight="1">
+      <c r="B43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="9">
+        <v>43231</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11" ht="37" customHeight="1">
+      <c r="B44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="9">
+        <v>43231</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="2:11" ht="37" customHeight="1">
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="9">
+        <v>43231</v>
+      </c>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="2:11" ht="37" customHeight="1">
+      <c r="B46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="9">
+        <v>43231</v>
+      </c>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="2:11" ht="35" customHeight="1">
+      <c r="B47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="9">
+        <v>43232</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="2:11" ht="18">
+      <c r="B48" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="2:11" ht="36" customHeight="1">
+      <c r="B50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="2:11" ht="18">
+      <c r="B51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="2:11" ht="37" customHeight="1">
+      <c r="B52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="9">
+        <v>43246</v>
+      </c>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="2:11" ht="18">
+      <c r="B53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="9">
+        <v>43251</v>
+      </c>
+      <c r="K53" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="119">
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B4:L5"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:L12"/>
+    <mergeCell ref="B15:L16"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B20:L21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521477D7-9BAA-324D-B69B-E4AD739084DB}">
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
@@ -871,19 +2577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
@@ -901,32 +2607,32 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
@@ -944,25 +2650,25 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="77" customHeight="1">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -974,38 +2680,38 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="2:12" ht="81" customHeight="1">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1017,163 +2723,176 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="2:12" ht="62" customHeight="1">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="42"/>
+      <c r="H23" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="2:12" ht="96" customHeight="1">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="35" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="36"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="55"/>
+      <c r="F28" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="26" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:12" ht="106" customHeight="1">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="35" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="36"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B4:L5"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B11:L12"/>
+    <mergeCell ref="B15:L16"/>
+    <mergeCell ref="B20:L21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
@@ -1187,19 +2906,6 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B20:L21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B4:L5"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B11:L12"/>
-    <mergeCell ref="B15:L16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
